--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.18770000000001</v>
+        <v>-22.0681</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.120699999999998</v>
+        <v>-8.4596</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8331</v>
+        <v>-21.81880000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.577499999999997</v>
+        <v>-8.5487</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.685299999999998</v>
+        <v>-8.429799999999998</v>
       </c>
     </row>
     <row r="20">
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.30709999999997</v>
+        <v>-20.04919999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.547899999999993</v>
+        <v>9.487299999999992</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.92569999999998</v>
+        <v>-20.43219999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.735700000000001</v>
+        <v>5.578500000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7322</v>
+        <v>-21.65069999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.99199999999997</v>
+        <v>-21.00729999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.2477</v>
+        <v>5.041900000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.03299999999997</v>
+        <v>-21.26589999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.396700000000008</v>
+        <v>9.450300000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.748599999999999</v>
+        <v>-6.888499999999994</v>
       </c>
     </row>
     <row r="45">
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.767100000000003</v>
+        <v>4.7818</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.292300000000001</v>
+        <v>-7.2823</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>7.071400000000002</v>
+        <v>7.981500000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.653099999999995</v>
+        <v>5.752499999999998</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.015000000000001</v>
+        <v>-8.250599999999997</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.820600000000001</v>
+        <v>6.130100000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.95309999999998</v>
+        <v>-21.75739999999998</v>
       </c>
       <c r="B53" t="n">
-        <v>6.253600000000001</v>
+        <v>5.800599999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.824800000000003</v>
+        <v>4.815200000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.913500000000001</v>
+        <v>-9.0063</v>
       </c>
     </row>
     <row r="56">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.21760000000002</v>
+        <v>-22.45470000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.090699999999998</v>
+        <v>-8.168899999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2274</v>
+        <v>-22.26449999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.559299999999992</v>
+        <v>-7.660199999999991</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60999999999999</v>
+        <v>-21.63099999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.711399999999998</v>
+        <v>7.652200000000004</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5464</v>
+        <v>-20.43950000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.876200000000003</v>
+        <v>-7.620000000000004</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.78769999999999</v>
+        <v>-21.77339999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.891800000000001</v>
+        <v>4.8565</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.706700000000001</v>
+        <v>5.420700000000003</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.486999999999997</v>
+        <v>4.477599999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.48109999999998</v>
+        <v>-20.65059999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.809100000000003</v>
+        <v>-6.698300000000004</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.43160000000001</v>
+        <v>-21.41760000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.588599999999999</v>
+        <v>-6.589900000000003</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.470800000000002</v>
+        <v>-8.484100000000005</v>
       </c>
     </row>
     <row r="97">
@@ -1846,13 +1846,13 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.1848</v>
+        <v>5.1296</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.778699999999997</v>
+        <v>-8.137099999999997</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.65460000000001</v>
+        <v>-21.75799999999999</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
